--- a/data/huggins_preprocessed.xlsx
+++ b/data/huggins_preprocessed.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1428,11 +1428,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1068328757093173</v>
+        <v>0.09654238444482348</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -1467,11 +1467,11 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.08349497137552221</v>
+        <v>0.09190631700478312</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -1506,11 +1506,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.07433979606491457</v>
+        <v>0.08756634200862208</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -1545,11 +1545,11 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.06641136272276565</v>
+        <v>0.08349497137552221</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -1974,11 +1974,11 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.3666472634083837</v>
+        <v>0.3305805901415658</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -2013,11 +2013,11 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.2848513074423643</v>
+        <v>0.3143318489196768</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -2052,11 +2052,11 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.2527637512566423</v>
+        <v>0.299120868593326</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -2091,11 +2091,11 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.2249757470186252</v>
+        <v>0.2848513074423643</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -3066,11 +3066,11 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2.134010616877174</v>
+        <v>1.899727102166127</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -3105,11 +3105,11 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.602676775491258</v>
+        <v>1.794177799769092</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -3144,11 +3144,11 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.394240988079851</v>
+        <v>1.695369631167172</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -3183,11 +3183,11 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.213734423154228</v>
+        <v>1.602676775491258</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -3222,11 +3222,11 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.15334431630972</v>
+        <v>1.036452328159645</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -3261,11 +3261,11 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.8882438496054463</v>
+        <v>0.9837902028698664</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -3300,11 +3300,11 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.7842481688927188</v>
+        <v>0.9344914577678429</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -3339,11 +3339,11 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.6941873241323864</v>
+        <v>0.8882438496054463</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-0.1319213984989932</v>
+        <v>-0.1319404059355279</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -3417,11 +3417,11 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.1319645056475321</v>
+        <v>-0.1319489691571829</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -3456,11 +3456,11 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-0.1319814160562976</v>
+        <v>-0.1319569854702219</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -3495,11 +3495,11 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-0.1319960605654563</v>
+        <v>-0.1319645056475321</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -3534,11 +3534,11 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.05731237415339557</v>
+        <v>0.05630180794814942</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -3573,11 +3573,11 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.05502050131517872</v>
+        <v>0.05584652812139206</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -3612,11 +3612,11 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.05412142754559816</v>
+        <v>0.05542032572249721</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -3651,11 +3651,11 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.05334282460136675</v>
+        <v>0.05502050131517872</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -4275,11 +4275,11 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-0.1149815119897492</v>
+        <v>-0.09949582125191882</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -4314,11 +4314,11 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-0.07986136469131984</v>
+        <v>-0.09251921491011052</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -4353,11 +4353,11 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>-0.06608415912681316</v>
+        <v>-0.08598818457608177</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -4392,11 +4392,11 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-0.05415302157309394</v>
+        <v>-0.07986136469131984</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -4977,11 +4977,11 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.3560876807614864</v>
+        <v>0.3173984308374553</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -5016,11 +5016,11 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.2683439579142813</v>
+        <v>0.2999681675738084</v>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -5055,11 +5055,11 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.2339231653023122</v>
+        <v>0.2836511256586302</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -5094,11 +5094,11 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.2041145651882621</v>
+        <v>0.2683439579142813</v>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -5133,11 +5133,11 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.1453646348160352</v>
+        <v>0.1306032747740065</v>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -5172,11 +5172,11 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.1118872040847904</v>
+        <v>0.1239529935675408</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -5211,11 +5211,11 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.09875441619991386</v>
+        <v>0.1177274469104263</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -5250,11 +5250,11 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.08738134798338472</v>
+        <v>0.1118872040847904</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -5289,11 +5289,11 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.03481347245103423</v>
+        <v>0.03393928023196316</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -5328,11 +5328,11 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.03283088349063902</v>
+        <v>0.0335454395513772</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -5367,11 +5367,11 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.03205313801522332</v>
+        <v>0.03317675235510139</v>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -5406,11 +5406,11 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.03137960605654563</v>
+        <v>0.03283088349063902</v>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -5484,11 +5484,11 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.1170297638660077</v>
+        <v>0.1095366877025414</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -5523,11 +5523,11 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.1000361442054773</v>
+        <v>0.1061609104403761</v>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -5562,11 +5562,11 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.09336975441619992</v>
+        <v>0.1030007344722976</v>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -5601,11 +5601,11 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.08759662334181964</v>
+        <v>0.1000361442054773</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -6069,11 +6069,11 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>27.89990554640307</v>
+        <v>27.89991199044858</v>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -6108,11 +6108,11 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>27.89992016091598</v>
+        <v>27.89991489361702</v>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -6147,11 +6147,11 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>27.8999258940112</v>
+        <v>27.89991761136835</v>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -6186,11 +6186,11 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>27.89993085890393</v>
+        <v>27.89992016091598</v>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -6654,11 +6654,11 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.1264564158887058</v>
+        <v>0.1142676786628006</v>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -6693,11 +6693,11 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.09881346124090981</v>
+        <v>0.108776414316345</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -6732,11 +6732,11 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.0879694671836852</v>
+        <v>0.1036358614082708</v>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -6771,11 +6771,11 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.07857850730269328</v>
+        <v>0.09881346124090981</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -6810,11 +6810,11 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.03271517481237415</v>
+        <v>0.03191591335493775</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -6849,11 +6849,11 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.03090252204858425</v>
+        <v>0.03155583044697345</v>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -6888,11 +6888,11 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.03019144047106133</v>
+        <v>0.03121874501037842</v>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -6927,11 +6927,11 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.02957563982312743</v>
+        <v>0.03090252204858425</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -7005,11 +7005,11 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.2471433278418452</v>
+        <v>0.2226409687873103</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -7044,11 +7044,11 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.1915741915519109</v>
+        <v>0.2116021771400297</v>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -7083,11 +7083,11 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.1697750969409738</v>
+        <v>0.2012684017244132</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -7122,11 +7122,11 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.1508969583277502</v>
+        <v>0.1915741915519109</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -7278,11 +7278,11 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.042277869302581</v>
+        <v>0.04130376940133038</v>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -7317,11 +7317,11 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.04006869874671205</v>
+        <v>0.04086491835724889</v>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -7356,11 +7356,11 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.03920206807410599</v>
+        <v>0.04045409548139869</v>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -7395,11 +7395,11 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.03845156103443655</v>
+        <v>0.04006869874671205</v>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -7590,11 +7590,11 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.1976425041186162</v>
+        <v>0.1819070441753369</v>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -7629,11 +7629,11 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.1619559028315024</v>
+        <v>0.1748179119247897</v>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -7668,11 +7668,11 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.1479564842740198</v>
+        <v>0.168181542391825</v>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -7707,11 +7707,11 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.1358329090178213</v>
+        <v>0.1619559028315024</v>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -8058,11 +8058,11 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.2403468790042102</v>
+        <v>0.217468019785093</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -8097,11 +8097,11 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.1884596936407241</v>
+        <v>0.2071606465446149</v>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -8136,11 +8136,11 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.1681049834841304</v>
+        <v>0.197511575922082</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -8175,11 +8175,11 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.1504776899370227</v>
+        <v>0.1884596936407241</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -8214,11 +8214,11 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.04087124290682775</v>
+        <v>0.04007497867985673</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -8253,11 +8253,11 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.03906538759090206</v>
+        <v>0.03971624608279729</v>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -8292,11 +8292,11 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.03835697256929484</v>
+        <v>0.03938042471658949</v>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -8331,11 +8331,11 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.0377434811737907</v>
+        <v>0.03906538759090206</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -8370,11 +8370,11 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.03271517481237415</v>
+        <v>0.03191591335493775</v>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -8409,11 +8409,11 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.03090252204858425</v>
+        <v>0.03155583044697345</v>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -8448,11 +8448,11 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.03019144047106133</v>
+        <v>0.03121874501037842</v>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -8487,11 +8487,11 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.02957563982312743</v>
+        <v>0.03090252204858425</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -8645,11 +8645,11 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.1756948380010984</v>
+        <v>0.1578613167320485</v>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -8684,11 +8684,11 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.1352500232090361</v>
+        <v>0.149826966848095</v>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -8723,11 +8723,11 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.1193840155105558</v>
+        <v>0.1423057480440684</v>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -8762,11 +8762,11 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.1056439635535308</v>
+        <v>0.1352500232090361</v>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -9113,11 +9113,11 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.07220131978766248</v>
+        <v>0.06467402524304965</v>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -9152,11 +9152,11 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.05513009593068235</v>
+        <v>0.06128283193138712</v>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -9191,11 +9191,11 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.04843326296136724</v>
+        <v>0.05810822449305446</v>
       </c>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -9230,11 +9230,11 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.04263376792174729</v>
+        <v>0.05513009593068235</v>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -9347,11 +9347,11 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.09023316858868755</v>
+        <v>0.08288995394849054</v>
       </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -9386,11 +9386,11 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.07357942132136779</v>
+        <v>0.07958169223156854</v>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -9425,11 +9425,11 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.06704635932787592</v>
+        <v>0.07648471978285168</v>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -9464,11 +9464,11 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.06138869087498325</v>
+        <v>0.07357942132136779</v>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -9659,11 +9659,11 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.4778088962108731</v>
+        <v>0.4649957359713457</v>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -9698,11 +9698,11 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.4487498065913662</v>
+        <v>0.459223156853043</v>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -9737,11 +9737,11 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.4373502800517018</v>
+        <v>0.453819255947629</v>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -9776,11 +9776,11 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.4274782259145116</v>
+        <v>0.4487498065913662</v>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -9815,11 +9815,11 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.08609756544023431</v>
+        <v>0.07865444311785777</v>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -9854,11 +9854,11 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.06921723657744083</v>
+        <v>0.07530117103744022</v>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -9893,11 +9893,11 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.0625952893867586</v>
+        <v>0.07216206290914898</v>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -9932,11 +9932,11 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.05686064585287418</v>
+        <v>0.06921723657744083</v>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -9971,11 +9971,11 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.04452802489474648</v>
+        <v>0.04341405423844448</v>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -10010,11 +10010,11 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.0420016401052143</v>
+        <v>0.04291218868546924</v>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -10049,11 +10049,11 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.04101057015654172</v>
+        <v>0.04244237585821491</v>
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -10088,11 +10088,11 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.04015229800348386</v>
+        <v>0.0420016401052143</v>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -10127,11 +10127,11 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.3560876807614864</v>
+        <v>0.3173984308374553</v>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -10166,11 +10166,11 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.2683439579142813</v>
+        <v>0.2999681675738084</v>
       </c>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -10205,11 +10205,11 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.2339231653023122</v>
+        <v>0.2836511256586302</v>
       </c>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -10244,11 +10244,11 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.2041145651882621</v>
+        <v>0.2683439579142813</v>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -10283,11 +10283,11 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.36296448837635</v>
+        <v>0.346729490022173</v>
       </c>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -10322,11 +10322,11 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.3261449791118676</v>
+        <v>0.3394153059541481</v>
       </c>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -10361,11 +10361,11 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.3117011345684332</v>
+        <v>0.3325682580233115</v>
       </c>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -10400,11 +10400,11 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.2991926839072759</v>
+        <v>0.3261449791118676</v>
       </c>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -10556,11 +10556,11 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.001570954237598389</v>
+        <v>0.001451564557393826</v>
       </c>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -10595,11 +10595,11 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.001300189231007272</v>
+        <v>0.001397777173016659</v>
       </c>
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -10634,11 +10634,11 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.001193971420364785</v>
+        <v>0.001347425035925276</v>
       </c>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -10673,11 +10673,11 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.00110198619857966</v>
+        <v>0.001300189231007272</v>
       </c>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -10751,11 +10751,11 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.06713842211239247</v>
+        <v>0.06149363806924783</v>
       </c>
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -10790,11 +10790,11 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.05433656196812627</v>
+        <v>0.05895055253174997</v>
       </c>
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -10829,11 +10829,11 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.04931454832687061</v>
+        <v>0.05656988663579755</v>
       </c>
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -10868,11 +10868,11 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.04496545625083748</v>
+        <v>0.05433656196812627</v>
       </c>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -11063,11 +11063,11 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.3399544206479956</v>
+        <v>0.324743476036159</v>
       </c>
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -11102,11 +11102,11 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.305457372737119</v>
+        <v>0.3178906481939634</v>
       </c>
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -11141,11 +11141,11 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.2919246014648859</v>
+        <v>0.3114754909787642</v>
       </c>
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -11180,11 +11180,11 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.2802051453838939</v>
+        <v>0.305457372737119</v>
       </c>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -12077,11 +12077,11 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.05637949295259016</v>
+        <v>0.05298263175848542</v>
       </c>
       <c r="D299" t="inlineStr"/>
       <c r="E299" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -12116,11 +12116,11 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.04867571870648306</v>
+        <v>0.05145227939963715</v>
       </c>
       <c r="D300" t="inlineStr"/>
       <c r="E300" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -12155,11 +12155,11 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.04565362200201063</v>
+        <v>0.05001966629410826</v>
       </c>
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -12194,11 +12194,11 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.04303646924829157</v>
+        <v>0.04867571870648306</v>
       </c>
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -12467,11 +12467,11 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.03640252608456893</v>
+        <v>0.02771055773494797</v>
       </c>
       <c r="D309" t="inlineStr"/>
       <c r="E309" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -12506,11 +12506,11 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.01668992727835371</v>
+        <v>0.02379465611083623</v>
       </c>
       <c r="D310" t="inlineStr"/>
       <c r="E310" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -12545,11 +12545,11 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.008956915122791897</v>
+        <v>0.02012885198786524</v>
       </c>
       <c r="D311" t="inlineStr"/>
       <c r="E311" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -12584,11 +12584,11 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.002260083076510794</v>
+        <v>0.01668992727835371</v>
       </c>
       <c r="D312" t="inlineStr"/>
       <c r="E312" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -13091,11 +13091,11 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.9148380010982977</v>
+        <v>0.8196759338222754</v>
       </c>
       <c r="D325" t="inlineStr"/>
       <c r="E325" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -13130,11 +13130,11 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.6990190314095621</v>
+        <v>0.7768035625927761</v>
       </c>
       <c r="D326" t="inlineStr"/>
       <c r="E326" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -13169,11 +13169,11 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.614355881085739</v>
+        <v>0.73666932779818</v>
       </c>
       <c r="D327" t="inlineStr"/>
       <c r="E327" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -13208,11 +13208,11 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.5410371164411096</v>
+        <v>0.6990190314095621</v>
       </c>
       <c r="D328" t="inlineStr"/>
       <c r="E328" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -13247,11 +13247,11 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.8146677649643055</v>
+        <v>0.7120126215248168</v>
       </c>
       <c r="D329" t="inlineStr"/>
       <c r="E329" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -13286,11 +13286,11 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.5818551756150396</v>
+        <v>0.665764473033152</v>
       </c>
       <c r="D330" t="inlineStr"/>
       <c r="E330" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -13325,11 +13325,11 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.490525635501939</v>
+        <v>0.6224700622704775</v>
       </c>
       <c r="D331" t="inlineStr"/>
       <c r="E331" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -13364,11 +13364,11 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.4114337397829293</v>
+        <v>0.5818551756150396</v>
       </c>
       <c r="D332" t="inlineStr"/>
       <c r="E332" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
@@ -13403,11 +13403,11 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.4942650558301301</v>
+        <v>0.4325720620842573</v>
       </c>
       <c r="D333" t="inlineStr"/>
       <c r="E333" t="n">
-        <v>273.15</v>
+        <v>293.15</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>0摄氏度</t>
+          <t>20摄氏度</t>
         </is>
       </c>
     </row>
@@ -13442,11 +13442,11 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.3543509206250968</v>
+        <v>0.4047781626257629</v>
       </c>
       <c r="D334" t="inlineStr"/>
       <c r="E334" t="n">
-        <v>323.15</v>
+        <v>303.15</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>50摄氏度</t>
+          <t>30摄氏度</t>
         </is>
       </c>
     </row>
@@ -13481,11 +13481,11 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.299464311360046</v>
+        <v>0.3787593804885839</v>
       </c>
       <c r="D335" t="inlineStr"/>
       <c r="E335" t="n">
-        <v>348.15</v>
+        <v>313.15</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>75摄氏度</t>
+          <t>40摄氏度</t>
         </is>
       </c>
     </row>
@@ -13520,11 +13520,11 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.2519321988476484</v>
+        <v>0.3543509206250968</v>
       </c>
       <c r="D336" t="inlineStr"/>
       <c r="E336" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>100摄氏度</t>
+          <t>50摄氏度</t>
         </is>
       </c>
     </row>
